--- a/API/src/app/predictionModel/Dados.xlsx
+++ b/API/src/app/predictionModel/Dados.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>índice</t>
   </si>
@@ -87,12 +87,6 @@
   </si>
   <si>
     <t>Cascavel</t>
-  </si>
-  <si>
-    <t>13/05/2021</t>
-  </si>
-  <si>
-    <t>19/05/2021</t>
   </si>
   <si>
     <t>tamanho da previsão (em dias)</t>
@@ -348,42 +342,35 @@
       <c r="I2">
         <v>31826</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>24</v>
+      <c r="J2" s="1">
+        <v>44329</v>
       </c>
       <c r="K2">
-        <f>C2-D2</f>
-        <v>285402</v>
+        <v>298930</v>
       </c>
       <c r="L2">
-        <f>D2-E2-F2</f>
-        <v>1509</v>
+        <v>1455</v>
       </c>
       <c r="M2">
-        <f>E2+F2</f>
-        <v>7249</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
+        <v>31948</v>
+      </c>
+      <c r="N2" s="1">
+        <v>44335</v>
       </c>
       <c r="O2">
-        <f>C2-G2</f>
-        <v>284991</v>
+        <v>298343</v>
       </c>
       <c r="P2">
-        <f>G2-H2-I2</f>
-        <v>1743</v>
+        <v>1476</v>
       </c>
       <c r="Q2">
-        <f>H2+I2</f>
-        <v>7426</v>
+        <v>32514</v>
       </c>
       <c r="R2">
         <v>6</v>
       </c>
       <c r="S2" s="2">
-        <f>H2/Q2</f>
-        <v>0.0269323996768112</v>
+        <v>0.021160115642492466</v>
       </c>
       <c r="T2" s="3">
         <v>0.35</v>
@@ -572,7 +559,7 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1">
         <v>30</v>
@@ -580,7 +567,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4">
         <f>COUNT(sir!A:A)</f>
@@ -589,7 +576,7 @@
     </row>
     <row r="3" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3">
         <v>0.08</v>
@@ -597,7 +584,7 @@
     </row>
     <row r="4" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4">
         <v>0.05</v>
@@ -605,7 +592,7 @@
     </row>
     <row r="5" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5">
         <v>100</v>
@@ -613,7 +600,7 @@
     </row>
     <row r="6" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6">
         <v>0.001</v>
@@ -621,7 +608,7 @@
     </row>
     <row r="7" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>14</v>

--- a/API/src/app/predictionModel/Dados.xlsx
+++ b/API/src/app/predictionModel/Dados.xlsx
@@ -1,144 +1,167 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sir" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="parâmetros" state="visible" r:id="rId5"/>
+    <sheet name="sir" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="parâmetros" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
-    <t>índice</t>
-  </si>
-  <si>
-    <t>Regional de Saúde</t>
-  </si>
-  <si>
-    <t>população</t>
-  </si>
-  <si>
-    <t>Casos0</t>
-  </si>
-  <si>
-    <t>Obitos0</t>
-  </si>
-  <si>
-    <t>Recuperados0</t>
-  </si>
-  <si>
-    <t>Casos1</t>
-  </si>
-  <si>
-    <t>Obitos1</t>
-  </si>
-  <si>
-    <t>Recuperados1</t>
-  </si>
-  <si>
-    <t>dt0</t>
-  </si>
-  <si>
-    <t>s0</t>
-  </si>
-  <si>
-    <t>i0</t>
-  </si>
-  <si>
-    <t>r0</t>
-  </si>
-  <si>
-    <t>dt1</t>
-  </si>
-  <si>
-    <t>s1</t>
-  </si>
-  <si>
-    <t>i1</t>
-  </si>
-  <si>
-    <t>r1</t>
-  </si>
-  <si>
-    <t>dt1_dt0</t>
-  </si>
-  <si>
-    <t>perc_obt</t>
-  </si>
-  <si>
-    <t>perc_isol</t>
-  </si>
-  <si>
-    <t>max_infectados</t>
-  </si>
-  <si>
-    <t>alfa</t>
-  </si>
-  <si>
-    <t>beta</t>
-  </si>
-  <si>
-    <t>Cascavel</t>
-  </si>
-  <si>
-    <t>tamanho da previsão (em dias)</t>
-  </si>
-  <si>
-    <t>Número de registros</t>
-  </si>
-  <si>
-    <t>Chute inicial para alfa</t>
-  </si>
-  <si>
-    <t>Chute inicial para beta</t>
-  </si>
-  <si>
-    <t>Número de Iterações função Calibra</t>
-  </si>
-  <si>
-    <t>Precisão Função Calibra</t>
-  </si>
-  <si>
-    <t>Estimar índice de isolamento daqui a XX dias</t>
+    <t xml:space="preserve">índice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regional de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">população</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casos0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obitos0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperados0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Casos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obitos1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recuperados1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dt1_dt0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_obt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">perc_isol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_infectados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cascavel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tamanho da previsão (em dias)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de registros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chute inicial para alfa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chute inicial para beta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Número de Iterações função Calibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precisão Função Calibra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estimar índice de isolamento daqui a XX dias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
+    <numFmt numFmtId="166" formatCode="0%"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
-      <color theme="1"/>
-      <family val="2"/>
-      <scheme val="minor"/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
-      <charset val="1"/>
-      <color rgb="FF000000"/>
-      <family val="2"/>
-      <sz val="12"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -156,14 +179,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -179,443 +202,545 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="bottom" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFA7D00"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:W200"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.60546875" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.75" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="9.26" customWidth="1"/>
-    <col min="4" max="4" width="6.88" customWidth="1"/>
-    <col min="5" max="5" width="7.26" customWidth="1"/>
-    <col min="6" max="6" width="12.37" customWidth="1"/>
-    <col min="7" max="7" width="6.88" customWidth="1"/>
-    <col min="8" max="8" width="7.26" customWidth="1"/>
-    <col min="9" max="9" width="12.37" customWidth="1"/>
-    <col min="10" max="10" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="8.87" customWidth="1"/>
-    <col min="12" max="12" width="5.88" customWidth="1"/>
-    <col min="13" max="13" width="6.88" customWidth="1"/>
-    <col min="14" max="14" width="13.47" customWidth="1"/>
-    <col min="15" max="15" width="8.87" customWidth="1"/>
-    <col min="16" max="16" width="5.88" customWidth="1"/>
-    <col min="17" max="17" width="6.88" customWidth="1"/>
-    <col min="18" max="18" width="6.75" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="8.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="8.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="0" width="6.75"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="0" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="0" t="n">
         <v>332333</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="0" t="n">
         <v>33403</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="0" t="n">
         <v>674</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="0" t="n">
         <v>31274</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="0" t="n">
         <v>33990</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="0" t="n">
         <v>688</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="0" t="n">
         <v>31826</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="1" t="n">
         <v>44329</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="0" t="n">
         <v>298930</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="0" t="n">
         <v>1455</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="0" t="n">
         <v>31948</v>
       </c>
-      <c r="N2" s="1">
+      <c r="N2" s="1" t="n">
         <v>44335</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="0" t="n">
         <v>298343</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="0" t="n">
         <v>1476</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="0" t="n">
         <v>32514</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="S2" s="2">
-        <v>0.021160115642492466</v>
-      </c>
-      <c r="T2" s="3">
+      <c r="S2" s="2" t="n">
+        <v>0.0211601156424925</v>
+      </c>
+      <c r="T2" s="3" t="n">
         <v>0.35</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="0" t="n">
         <v>1600</v>
       </c>
-      <c r="V2">
-        <f>(K2-O2)*C2/(O2*P2*R2)</f>
-        <v>0.0347695337045214</v>
-      </c>
-      <c r="W2">
-        <f>(Q2-M2)/(P2*R2)</f>
-        <v>0.014507007622326</v>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+      <c r="V2" s="0" t="n">
+        <f aca="false">(K2-O2)*C2/(O2*P2*R2)</f>
+        <v>0.0738342910001423</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <f aca="false">(Q2-M2)/(P2*R2)</f>
+        <v>0.0639114724480578</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J3" s="1"/>
       <c r="N3" s="1"/>
       <c r="S3" s="2"/>
       <c r="T3" s="3"/>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J4" s="1"/>
       <c r="N4" s="1"/>
       <c r="S4" s="2"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J5" s="1"/>
       <c r="N5" s="1"/>
       <c r="S5" s="2"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J6" s="1"/>
       <c r="N6" s="1"/>
       <c r="S6" s="2"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J7" s="1"/>
       <c r="N7" s="1"/>
       <c r="S7" s="2"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J8" s="1"/>
       <c r="N8" s="1"/>
       <c r="S8" s="2"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J9" s="1"/>
       <c r="N9" s="1"/>
       <c r="S9" s="2"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J10" s="1"/>
       <c r="N10" s="1"/>
       <c r="S10" s="2"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J11" s="1"/>
       <c r="N11" s="1"/>
       <c r="S11" s="2"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J12" s="1"/>
       <c r="N12" s="1"/>
       <c r="S12" s="2"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J13" s="1"/>
       <c r="N13" s="1"/>
       <c r="S13" s="2"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J14" s="1"/>
       <c r="N14" s="1"/>
       <c r="S14" s="2"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J15" s="1"/>
       <c r="N15" s="1"/>
       <c r="S15" s="2"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J16" s="1"/>
       <c r="N16" s="1"/>
       <c r="S16" s="2"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J17" s="1"/>
       <c r="N17" s="1"/>
       <c r="S17" s="2"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J18" s="1"/>
       <c r="N18" s="1"/>
       <c r="S18" s="2"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J19" s="1"/>
       <c r="N19" s="1"/>
       <c r="S19" s="2"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J20" s="1"/>
       <c r="N20" s="1"/>
       <c r="S20" s="2"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J21" s="1"/>
       <c r="N21" s="1"/>
       <c r="S21" s="2"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J22" s="1"/>
       <c r="N22" s="1"/>
       <c r="S22" s="2"/>
       <c r="T22" s="3"/>
     </row>
-    <row r="23" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J23" s="1"/>
       <c r="N23" s="1"/>
       <c r="S23" s="2"/>
       <c r="T23" s="3"/>
     </row>
-    <row r="24" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J24" s="1"/>
       <c r="N24" s="1"/>
       <c r="S24" s="2"/>
       <c r="T24" s="3"/>
     </row>
-    <row r="25" ht="15" customHeight="1" spans="10:20" x14ac:dyDescent="0.25">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="J25" s="1"/>
       <c r="N25" s="1"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
     </row>
-    <row r="26" ht="15" customHeight="1" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="O26" s="1"/>
     </row>
-    <row r="199" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <f>IF(ISBLANK(B199),"",A198+1)</f>
-      </c>
-    </row>
-    <row r="200" ht="15.75" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200">
-        <f>IF(ISBLANK(B200),"",A199+1)</f>
+    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="str">
+        <f aca="false">IF(ISBLANK(B199),"",A198+1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="str">
+        <f aca="false">IF(ISBLANK(B200),"",A199+1)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100" view="normal">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0" defaultColWidth="8.60546875" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.61328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="38.13" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="38.13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="4">
-        <f>COUNT(sir!A:A)</f>
+      <c r="B2" s="4" t="n">
+        <f aca="false">COUNT(sir!A:A)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0" t="n">
         <v>0.08</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="0" t="n">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0" t="n">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="0" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>